--- a/src/main/webapp/assets/exceltpl/user_import.xlsx
+++ b/src/main/webapp/assets/exceltpl/user_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaifa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ_workspace\fengfu-pubbase\src\main\webapp\assets\exceltpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230ACE3-87F6-49F7-81C7-E78FC837EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9BC76B-1B21-4A5E-95A8-C637C041FC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2910" windowWidth="28800" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Acer</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>角色组</t>
   </si>
@@ -155,6 +155,14 @@
   </si>
   <si>
     <t>用户档案</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王伟光</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -559,20 +567,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="1" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -583,8 +591,9 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -597,20 +606,23 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -624,21 +636,24 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
